--- a/ESERCIZIO_M2-1-2_dati - COMPLETATO.xlsx
+++ b/ESERCIZIO_M2-1-2_dati - COMPLETATO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonino\Documents\Epicode 12-25\M1  Excel\Week 01\Lunedì\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372B6053-A837-4483-B3C8-F6E92532177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD5A690-DFBE-4DE0-9792-23A699372E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>TARGA</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>Uva</t>
+  </si>
+  <si>
+    <t>Tariffa</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Topolologia</t>
   </si>
   <si>
     <t>PRODOTTO</t>
@@ -369,10 +378,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -406,11 +416,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,17 +442,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -669,15 +674,16 @@
   </sheetPr>
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,14 +696,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -716,808 +728,1634 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>IF(LEFT(A2,1)&lt;="F",0,IF(LEFT(A2,1)&lt;="M",1,2))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <f>IF(C2=0,B2*60/30*2,IF(C2=1,B2*60/30*1.5,B2*2))</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">IF(LEFT(A3,1)&lt;="F",0,IF(LEFT(A3,1)&lt;="M",1,2))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D66" si="1">IF(C3=0,B3*60/30*2,IF(C3=1,B3*60/30*1.5,B3*2))</f>
+        <v>7.5</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.7</v>
+      <c r="B4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.8</v>
+      <c r="B5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>1.9</v>
+      <c r="B6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.1000000000000001</v>
+      <c r="B7" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>1.1100000000000001</v>
+      <c r="B8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>1.1200000000000001</v>
+      <c r="B9" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
-        <v>1.1299999999999999</v>
+      <c r="B10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
-        <v>1.1399999999999999</v>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
-        <v>1.1499999999999999</v>
+      <c r="B12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
-        <v>1.1599999999999999</v>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
-        <v>1.17</v>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4">
-        <v>1.18</v>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="4">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="4">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="4">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="4">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="4">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="4">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="4">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="4">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="4">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="4">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="4">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="4">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="4">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="4">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="4">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="4">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="4">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="4">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="4">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="4">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="2">IF(LEFT(A67,1)&lt;="F",0,IF(LEFT(A67,1)&lt;="M",1,2))</f>
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:D101" si="3">IF(C67=0,B67*60/30*2,IF(C67=1,B67*60/30*1.5,B67*2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="4">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="4">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="4">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="4">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="4">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="4">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="4">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="4">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="4">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="4">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="4">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="4">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="4">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="4">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="4">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="4">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="4">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="4">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="4">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="4">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="4">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="4">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="4">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="4">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="4">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="4">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="4">
-        <v>1.101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="4">
-        <v>1.1020000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="4">
-        <v>1.103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="4">
-        <v>1.1040000000000001</v>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1527,99 +2365,100 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="2">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2">
-        <f>COUNTIF($A$2:$A$47,D2)</f>
+      <c r="F2">
+        <f>COUNTIF($A$2:$A$47,E2)</f>
         <v>11</v>
       </c>
-      <c r="F2">
-        <f>SUMIF($A$2:$A$47,D2,$B$2:$B$47)</f>
+      <c r="G2">
+        <f>SUMIF($A$2:$A$47,E2,$B$2:$B$47)</f>
         <v>525</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>80</v>
       </c>
-      <c r="I2" s="3">
-        <f>SUMIFS($C$2:$C$47, $A$2:$A$47, G2, $B$2:$B$47, "&gt;" &amp; H2)</f>
+      <c r="J2" s="7">
+        <f>SUMIFS($C$2:$C$47, $A$2:$A$47, H2, $B$2:$B$47, "&gt;" &amp; I2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
@@ -1629,21 +2468,22 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">COUNTIF($A$2:$A$47,D3)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">COUNTIF($A$2:$A$47,E3)</f>
         <v>14</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="1">SUMIF($A$2:$A$47,D3,$B$2:$B$47)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">SUMIF($A$2:$A$47,E3,$B$2:$B$47)</f>
         <v>755</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
@@ -1653,21 +2493,22 @@
       <c r="C4" s="2">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
@@ -1677,21 +2518,22 @@
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
@@ -1701,21 +2543,22 @@
       <c r="C6" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
@@ -1725,8 +2568,9 @@
       <c r="C7" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
@@ -1736,8 +2580,9 @@
       <c r="C8" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>105</v>
       </c>
@@ -1745,7 +2590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
@@ -1755,8 +2600,9 @@
       <c r="C10" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>108</v>
       </c>
@@ -1766,8 +2612,9 @@
       <c r="C11" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -1777,8 +2624,9 @@
       <c r="C12" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -1786,7 +2634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -1796,8 +2644,9 @@
       <c r="C14" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>105</v>
       </c>
@@ -1807,8 +2656,9 @@
       <c r="C15" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>107</v>
       </c>
@@ -1818,8 +2668,9 @@
       <c r="C16" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>108</v>
       </c>
@@ -1827,7 +2678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>106</v>
       </c>
@@ -1837,8 +2688,9 @@
       <c r="C18" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
@@ -1848,8 +2700,9 @@
       <c r="C19" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
@@ -1857,7 +2710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
@@ -1867,8 +2720,9 @@
       <c r="C21" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
@@ -1878,8 +2732,9 @@
       <c r="C22" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1889,8 +2744,9 @@
       <c r="C23" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -1900,8 +2756,9 @@
       <c r="C24" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -1909,7 +2766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>107</v>
       </c>
@@ -1919,8 +2776,9 @@
       <c r="C26" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
@@ -1930,8 +2788,9 @@
       <c r="C27" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -1941,8 +2800,9 @@
       <c r="C28" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>107</v>
       </c>
@@ -1952,8 +2812,9 @@
       <c r="C29" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
@@ -1963,8 +2824,9 @@
       <c r="C30" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -1974,8 +2836,9 @@
       <c r="C31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
@@ -1983,7 +2846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -1993,8 +2856,9 @@
       <c r="C33" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>107</v>
       </c>
@@ -2004,8 +2868,9 @@
       <c r="C34" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>105</v>
       </c>
@@ -2015,8 +2880,9 @@
       <c r="C35" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2026,8 +2892,9 @@
       <c r="C36" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -2035,7 +2902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -2045,8 +2912,9 @@
       <c r="C38" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -2056,8 +2924,9 @@
       <c r="C39" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -2067,8 +2936,9 @@
       <c r="C40" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
@@ -2078,8 +2948,9 @@
       <c r="C41" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
@@ -2089,8 +2960,9 @@
       <c r="C42" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
@@ -2100,8 +2972,9 @@
       <c r="C43" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -2111,8 +2984,9 @@
       <c r="C44" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -2122,8 +2996,9 @@
       <c r="C45" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
@@ -2131,7 +3006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
